--- a/python/FareFiling/gg_fare_filing.xlsx
+++ b/python/FareFiling/gg_fare_filing.xlsx
@@ -8,22 +8,39 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ping\git\pingsays\python\FareFiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963B503F-6E8F-4D8E-A47C-9BD3C5A4B208}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76EAC5E-9E81-48F9-B3D3-A1D8BC9C4486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="cabin_mapping" sheetId="2" r:id="rId2"/>
     <sheet name="season_mapping" sheetId="3" r:id="rId3"/>
     <sheet name="fare_combination" sheetId="4" r:id="rId4"/>
+    <sheet name="L" sheetId="5" r:id="rId5"/>
+    <sheet name="K1" sheetId="6" r:id="rId6"/>
+    <sheet name="K2" sheetId="7" r:id="rId7"/>
+    <sheet name="H1" sheetId="8" r:id="rId8"/>
+    <sheet name="H2" sheetId="9" r:id="rId9"/>
+    <sheet name="P" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="104">
   <si>
     <t>sort</t>
   </si>
@@ -161,13 +178,187 @@
   </si>
   <si>
     <t>OO</t>
+  </si>
+  <si>
+    <t>orig</t>
+  </si>
+  <si>
+    <t>fare_basis</t>
+  </si>
+  <si>
+    <t>ow/rt</t>
+  </si>
+  <si>
+    <t>blank1</t>
+  </si>
+  <si>
+    <t>blank2</t>
+  </si>
+  <si>
+    <t>blank3</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>fare</t>
+  </si>
+  <si>
+    <t>NYC</t>
+  </si>
+  <si>
+    <t>YLXSE</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>YLWSE</t>
+  </si>
+  <si>
+    <t>YLXSOE</t>
+  </si>
+  <si>
+    <t>YLWSOE</t>
+  </si>
+  <si>
+    <t>BLXSE</t>
+  </si>
+  <si>
+    <t>BLWSE</t>
+  </si>
+  <si>
+    <t>BLXSOE</t>
+  </si>
+  <si>
+    <t>BLWSOE</t>
+  </si>
+  <si>
+    <t>ELXSE</t>
+  </si>
+  <si>
+    <t>ELWSE</t>
+  </si>
+  <si>
+    <t>ELXSOE</t>
+  </si>
+  <si>
+    <t>ELWSOE</t>
+  </si>
+  <si>
+    <t>BKXSE</t>
+  </si>
+  <si>
+    <t>BKWSE</t>
+  </si>
+  <si>
+    <t>BKXSOE</t>
+  </si>
+  <si>
+    <t>BKWSOE</t>
+  </si>
+  <si>
+    <t>MKXSE</t>
+  </si>
+  <si>
+    <t>MKWSE</t>
+  </si>
+  <si>
+    <t>MKXSOE</t>
+  </si>
+  <si>
+    <t>MKWSOE</t>
+  </si>
+  <si>
+    <t>QKXSE</t>
+  </si>
+  <si>
+    <t>QKWSE</t>
+  </si>
+  <si>
+    <t>QKXSOE</t>
+  </si>
+  <si>
+    <t>QKWSOE</t>
+  </si>
+  <si>
+    <t>QHXSE</t>
+  </si>
+  <si>
+    <t>QHWSE</t>
+  </si>
+  <si>
+    <t>QHXSOE</t>
+  </si>
+  <si>
+    <t>QHWSOE</t>
+  </si>
+  <si>
+    <t>UHXSE</t>
+  </si>
+  <si>
+    <t>UHWSE</t>
+  </si>
+  <si>
+    <t>UHXSOE</t>
+  </si>
+  <si>
+    <t>UHWSOE</t>
+  </si>
+  <si>
+    <t>HHXSE</t>
+  </si>
+  <si>
+    <t>HHWSE</t>
+  </si>
+  <si>
+    <t>HHXSOE</t>
+  </si>
+  <si>
+    <t>HHWSOE</t>
+  </si>
+  <si>
+    <t>HPXSE</t>
+  </si>
+  <si>
+    <t>HPWSE</t>
+  </si>
+  <si>
+    <t>HPXSOE</t>
+  </si>
+  <si>
+    <t>HPWSOE</t>
+  </si>
+  <si>
+    <t>NPXSE</t>
+  </si>
+  <si>
+    <t>NPWSE</t>
+  </si>
+  <si>
+    <t>NPXSOE</t>
+  </si>
+  <si>
+    <t>NPWSOE</t>
+  </si>
+  <si>
+    <t>APXSE</t>
+  </si>
+  <si>
+    <t>APWSE</t>
+  </si>
+  <si>
+    <t>APXSOE</t>
+  </si>
+  <si>
+    <t>APWSOE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,6 +374,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +388,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,11 +396,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -215,11 +426,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -281,37 +529,12 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -327,55 +550,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F24" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="3">
-      <colorFilter dxfId="21"/>
+      <colorFilter dxfId="8"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sort" dataDxfId="20"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="dest" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="booking_class" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="season" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="base_fare" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="direct" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sort" dataDxfId="5">
+      <calculatedColumnFormula>IF(ROW()=2, ROW($A$1),$A1+1)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="dest" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="booking_class" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="season" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="base_fare" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="direct" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:B18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="booking_class" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="cabin" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="booking_class" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="cabin" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="season" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="season_code" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="season" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="season_code" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="weekend" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="weekend_surcharge" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="oneway" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="oneway_multiplier" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="oneway_mapping" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="weekend" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="weekend_surcharge" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="oneway" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="oneway_multiplier" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="oneway_mapping" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -680,8 +905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -691,8 +916,8 @@
     <col min="3" max="3" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="8.7265625" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="3"/>
+    <col min="6" max="9" width="8.7265625" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -717,6 +942,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
+        <f t="shared" ref="A2:A24" si="0">IF(ROW()=2, ROW($A$1),$A1+1)</f>
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
@@ -734,6 +960,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -751,6 +978,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -768,6 +996,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -785,6 +1014,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -802,6 +1032,7 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -819,6 +1050,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -836,6 +1068,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -853,6 +1086,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -870,6 +1104,7 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -887,6 +1122,7 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -904,6 +1140,7 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -921,6 +1158,7 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -938,6 +1176,7 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -955,6 +1194,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -972,6 +1212,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -989,6 +1230,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -1006,6 +1248,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -1023,6 +1266,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -1040,6 +1284,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -1057,6 +1302,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -1074,6 +1320,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -1091,6 +1338,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -1111,6 +1359,574 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>100</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>1848</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1378,7 +2194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -1389,8 +2205,8 @@
     <col min="3" max="3" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="8.7265625" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="8.7265625" style="3"/>
+    <col min="6" max="11" width="8.7265625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -1478,4 +2294,2116 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>59</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" t="s">
+        <v>56</v>
+      </c>
+      <c r="K14">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="J15" t="s">
+        <v>56</v>
+      </c>
+      <c r="K15">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F17" t="s">
+        <v>45</v>
+      </c>
+      <c r="J17" t="s">
+        <v>56</v>
+      </c>
+      <c r="K17">
+        <v>1488</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" t="s">
+        <v>43</v>
+      </c>
+      <c r="J18" t="s">
+        <v>56</v>
+      </c>
+      <c r="K18">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>43</v>
+      </c>
+      <c r="J19" t="s">
+        <v>56</v>
+      </c>
+      <c r="K19">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
+        <v>45</v>
+      </c>
+      <c r="J20" t="s">
+        <v>56</v>
+      </c>
+      <c r="K20">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" t="s">
+        <v>45</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+      <c r="K21">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>64</v>
+      </c>
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>26</v>
+      </c>
+      <c r="F22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" t="s">
+        <v>56</v>
+      </c>
+      <c r="K22">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>54</v>
+      </c>
+      <c r="B23" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>26</v>
+      </c>
+      <c r="F23" t="s">
+        <v>43</v>
+      </c>
+      <c r="J23" t="s">
+        <v>56</v>
+      </c>
+      <c r="K23">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" t="s">
+        <v>6</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="J24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K24">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>67</v>
+      </c>
+      <c r="D25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E25" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>45</v>
+      </c>
+      <c r="J25" t="s">
+        <v>56</v>
+      </c>
+      <c r="K25">
+        <v>1908</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>1608</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>75</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>2508</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>2568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>82</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>1728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:K13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" t="s">
+        <v>56</v>
+      </c>
+      <c r="K4">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+      <c r="K8">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9">
+        <v>2628</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" t="s">
+        <v>43</v>
+      </c>
+      <c r="J10" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" t="s">
+        <v>43</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K12">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>56</v>
+      </c>
+      <c r="K13">
+        <v>2688</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/python/FareFiling/gg_fare_filing.xlsx
+++ b/python/FareFiling/gg_fare_filing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ping\git\pingsays\python\FareFiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76EAC5E-9E81-48F9-B3D3-A1D8BC9C4486}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A38C4C-6F14-4ED0-8E96-344F676E6788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="62130" yWindow="8355" windowWidth="17310" windowHeight="13395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="86">
   <si>
     <t>sort</t>
   </si>
@@ -207,151 +207,97 @@
     <t>NYC</t>
   </si>
   <si>
-    <t>YLXSE</t>
+    <t>YXUS</t>
   </si>
   <si>
     <t>USD</t>
   </si>
   <si>
-    <t>YLWSE</t>
-  </si>
-  <si>
-    <t>YLXSOE</t>
-  </si>
-  <si>
-    <t>YLWSOE</t>
-  </si>
-  <si>
-    <t>BLXSE</t>
-  </si>
-  <si>
-    <t>BLWSE</t>
-  </si>
-  <si>
-    <t>BLXSOE</t>
-  </si>
-  <si>
-    <t>BLWSOE</t>
-  </si>
-  <si>
-    <t>ELXSE</t>
-  </si>
-  <si>
-    <t>ELWSE</t>
-  </si>
-  <si>
-    <t>ELXSOE</t>
-  </si>
-  <si>
-    <t>ELWSOE</t>
-  </si>
-  <si>
-    <t>BKXSE</t>
-  </si>
-  <si>
-    <t>BKWSE</t>
-  </si>
-  <si>
-    <t>BKXSOE</t>
-  </si>
-  <si>
-    <t>BKWSOE</t>
-  </si>
-  <si>
-    <t>MKXSE</t>
-  </si>
-  <si>
-    <t>MKWSE</t>
-  </si>
-  <si>
-    <t>MKXSOE</t>
-  </si>
-  <si>
-    <t>MKWSOE</t>
-  </si>
-  <si>
-    <t>QKXSE</t>
-  </si>
-  <si>
-    <t>QKWSE</t>
-  </si>
-  <si>
-    <t>QKXSOE</t>
-  </si>
-  <si>
-    <t>QKWSOE</t>
-  </si>
-  <si>
-    <t>QHXSE</t>
-  </si>
-  <si>
-    <t>QHWSE</t>
-  </si>
-  <si>
-    <t>QHXSOE</t>
-  </si>
-  <si>
-    <t>QHWSOE</t>
-  </si>
-  <si>
-    <t>UHXSE</t>
-  </si>
-  <si>
-    <t>UHWSE</t>
-  </si>
-  <si>
-    <t>UHXSOE</t>
-  </si>
-  <si>
-    <t>UHWSOE</t>
-  </si>
-  <si>
-    <t>HHXSE</t>
-  </si>
-  <si>
-    <t>HHWSE</t>
-  </si>
-  <si>
-    <t>HHXSOE</t>
-  </si>
-  <si>
-    <t>HHWSOE</t>
-  </si>
-  <si>
-    <t>HPXSE</t>
-  </si>
-  <si>
-    <t>HPWSE</t>
-  </si>
-  <si>
-    <t>HPXSOE</t>
-  </si>
-  <si>
-    <t>HPWSOE</t>
-  </si>
-  <si>
-    <t>NPXSE</t>
-  </si>
-  <si>
-    <t>NPWSE</t>
-  </si>
-  <si>
-    <t>NPXSOE</t>
-  </si>
-  <si>
-    <t>NPWSOE</t>
-  </si>
-  <si>
-    <t>APXSE</t>
-  </si>
-  <si>
-    <t>APWSE</t>
-  </si>
-  <si>
-    <t>APXSOE</t>
-  </si>
-  <si>
-    <t>APWSOE</t>
+    <t>YWUS</t>
+  </si>
+  <si>
+    <t>YXOUS</t>
+  </si>
+  <si>
+    <t>YWOUS</t>
+  </si>
+  <si>
+    <t>BXUS</t>
+  </si>
+  <si>
+    <t>BWUS</t>
+  </si>
+  <si>
+    <t>BXOUS</t>
+  </si>
+  <si>
+    <t>BWOUS</t>
+  </si>
+  <si>
+    <t>EXUS</t>
+  </si>
+  <si>
+    <t>EWUS</t>
+  </si>
+  <si>
+    <t>EXOUS</t>
+  </si>
+  <si>
+    <t>EWOUS</t>
+  </si>
+  <si>
+    <t>MXUS</t>
+  </si>
+  <si>
+    <t>MWUS</t>
+  </si>
+  <si>
+    <t>MXOUS</t>
+  </si>
+  <si>
+    <t>MWOUS</t>
+  </si>
+  <si>
+    <t>QXUS</t>
+  </si>
+  <si>
+    <t>QWUS</t>
+  </si>
+  <si>
+    <t>UXUS</t>
+  </si>
+  <si>
+    <t>UWUS</t>
+  </si>
+  <si>
+    <t>UXOUS</t>
+  </si>
+  <si>
+    <t>UWOUS</t>
+  </si>
+  <si>
+    <t>HXUS</t>
+  </si>
+  <si>
+    <t>HWUS</t>
+  </si>
+  <si>
+    <t>NXUS</t>
+  </si>
+  <si>
+    <t>NWUS</t>
+  </si>
+  <si>
+    <t>AXUS</t>
+  </si>
+  <si>
+    <t>AWUS</t>
+  </si>
+  <si>
+    <t>AXOUS</t>
+  </si>
+  <si>
+    <t>AWOUS</t>
   </si>
 </sst>
 </file>
@@ -433,41 +379,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="24">
     <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -529,12 +441,38 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -550,57 +488,57 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F24" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:F24" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="3">
-      <colorFilter dxfId="8"/>
+      <colorFilter dxfId="21"/>
     </filterColumn>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sort" dataDxfId="5">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sort" dataDxfId="20">
       <calculatedColumnFormula>IF(ROW()=2, ROW($A$1),$A1+1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="dest" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="booking_class" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="season" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="base_fare" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="direct" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="dest" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="booking_class" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="season" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="base_fare" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="direct" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="A1:B18" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
   <autoFilter ref="A1:B18" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="booking_class" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="cabin" dataDxfId="20"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="booking_class" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="cabin" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B9" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="season" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="season_code" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="season" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="season_code" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Table1" displayName="Table1" ref="A1:E5" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="weekend" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="weekend_surcharge" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="oneway" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="oneway_multiplier" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="oneway_mapping" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="weekend" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="weekend_surcharge" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="oneway" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="oneway_multiplier" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="oneway_mapping" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -905,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -916,8 +854,8 @@
     <col min="3" max="3" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="8.7265625" style="3" customWidth="1"/>
-    <col min="10" max="16384" width="8.7265625" style="3"/>
+    <col min="6" max="11" width="8.7265625" style="3" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
@@ -1364,7 +1302,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:K21"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1413,7 +1351,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
@@ -1428,7 +1366,7 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>3700</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -1439,7 +1377,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
         <v>15</v>
@@ -1462,25 +1400,25 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>27</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
       </c>
       <c r="K4">
-        <v>2220</v>
+        <v>2948</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -1488,25 +1426,25 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" t="s">
         <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
       </c>
       <c r="K5">
-        <v>2268</v>
+        <v>2980</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -1514,10 +1452,10 @@
         <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>16</v>
@@ -1532,7 +1470,7 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>2900</v>
+        <v>3848</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -1540,10 +1478,10 @@
         <v>54</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>16</v>
@@ -1558,7 +1496,7 @@
         <v>56</v>
       </c>
       <c r="K7">
-        <v>2980</v>
+        <v>3880</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -1566,10 +1504,10 @@
         <v>54</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -1578,13 +1516,13 @@
         <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>1740</v>
+        <v>4548</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -1592,10 +1530,10 @@
         <v>54</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
@@ -1604,13 +1542,13 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
         <v>56</v>
       </c>
       <c r="K9">
-        <v>1788</v>
+        <v>4580</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -1618,16 +1556,16 @@
         <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F10" t="s">
         <v>43</v>
@@ -1636,7 +1574,7 @@
         <v>56</v>
       </c>
       <c r="K10">
-        <v>3800</v>
+        <v>3048</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -1644,16 +1582,16 @@
         <v>54</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F11" t="s">
         <v>43</v>
@@ -1662,7 +1600,7 @@
         <v>56</v>
       </c>
       <c r="K11">
-        <v>3880</v>
+        <v>3080</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -1670,16 +1608,16 @@
         <v>54</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F12" t="s">
         <v>45</v>
@@ -1688,7 +1626,7 @@
         <v>56</v>
       </c>
       <c r="K12">
-        <v>2280</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -1696,16 +1634,16 @@
         <v>54</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F13" t="s">
         <v>45</v>
@@ -1714,215 +1652,7 @@
         <v>56</v>
       </c>
       <c r="K13">
-        <v>2328</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" t="s">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s">
-        <v>27</v>
-      </c>
-      <c r="F14" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" t="s">
-        <v>56</v>
-      </c>
-      <c r="K14">
-        <v>4500</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" t="s">
-        <v>43</v>
-      </c>
-      <c r="J15" t="s">
-        <v>56</v>
-      </c>
-      <c r="K15">
-        <v>4580</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>98</v>
-      </c>
-      <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" t="s">
-        <v>45</v>
-      </c>
-      <c r="J16" t="s">
-        <v>56</v>
-      </c>
-      <c r="K16">
-        <v>2700</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s">
-        <v>27</v>
-      </c>
-      <c r="F17" t="s">
-        <v>45</v>
-      </c>
-      <c r="J17" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17">
-        <v>2748</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" t="s">
-        <v>100</v>
-      </c>
-      <c r="D18" t="s">
-        <v>18</v>
-      </c>
-      <c r="E18" t="s">
-        <v>26</v>
-      </c>
-      <c r="F18" t="s">
-        <v>43</v>
-      </c>
-      <c r="J18" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B19" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" t="s">
-        <v>18</v>
-      </c>
-      <c r="E19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F19" t="s">
-        <v>43</v>
-      </c>
-      <c r="J19" t="s">
-        <v>56</v>
-      </c>
-      <c r="K19">
-        <v>3080</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" t="s">
-        <v>102</v>
-      </c>
-      <c r="D20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>45</v>
-      </c>
-      <c r="J20" t="s">
-        <v>56</v>
-      </c>
-      <c r="K20">
-        <v>1800</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" t="s">
-        <v>103</v>
-      </c>
-      <c r="D21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>45</v>
-      </c>
-      <c r="J21" t="s">
-        <v>56</v>
-      </c>
-      <c r="K21">
-        <v>1848</v>
+        <v>1880</v>
       </c>
     </row>
   </sheetData>
@@ -2101,7 +1831,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2122,65 +1852,49 @@
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>17</v>
-      </c>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>15</v>
-      </c>
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2194,8 +1908,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2205,8 +1919,8 @@
     <col min="3" max="3" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.7265625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="3"/>
+    <col min="6" max="13" width="8.7265625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -2276,7 +1990,7 @@
         <v>25</v>
       </c>
       <c r="B5" s="3">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>44</v>
@@ -2362,7 +2076,7 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>2300</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -2414,7 +2128,7 @@
         <v>56</v>
       </c>
       <c r="K4">
-        <v>1380</v>
+        <v>1428</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -2440,7 +2154,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>1428</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -2466,7 +2180,7 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>3200</v>
+        <v>3248</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -2518,7 +2232,7 @@
         <v>56</v>
       </c>
       <c r="K8">
-        <v>1920</v>
+        <v>1968</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -2544,7 +2258,7 @@
         <v>56</v>
       </c>
       <c r="K9">
-        <v>1968</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -2570,7 +2284,7 @@
         <v>56</v>
       </c>
       <c r="K10">
-        <v>3900</v>
+        <v>3948</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -2622,7 +2336,7 @@
         <v>56</v>
       </c>
       <c r="K12">
-        <v>2340</v>
+        <v>2388</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -2648,7 +2362,7 @@
         <v>56</v>
       </c>
       <c r="K13">
-        <v>2388</v>
+        <v>2420</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -2674,7 +2388,7 @@
         <v>56</v>
       </c>
       <c r="K14">
-        <v>2400</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -2726,7 +2440,7 @@
         <v>56</v>
       </c>
       <c r="K16">
-        <v>1440</v>
+        <v>1488</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -2752,7 +2466,7 @@
         <v>56</v>
       </c>
       <c r="K17">
-        <v>1488</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -2778,7 +2492,7 @@
         <v>56</v>
       </c>
       <c r="K18">
-        <v>4000</v>
+        <v>4048</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -2830,7 +2544,7 @@
         <v>56</v>
       </c>
       <c r="K20">
-        <v>2400</v>
+        <v>2448</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -2856,7 +2570,7 @@
         <v>56</v>
       </c>
       <c r="K21">
-        <v>2448</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
@@ -2882,7 +2596,7 @@
         <v>56</v>
       </c>
       <c r="K22">
-        <v>3100</v>
+        <v>3148</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -2934,7 +2648,7 @@
         <v>56</v>
       </c>
       <c r="K24">
-        <v>1860</v>
+        <v>1908</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -2960,7 +2674,7 @@
         <v>56</v>
       </c>
       <c r="K25">
-        <v>1908</v>
+        <v>1940</v>
       </c>
     </row>
   </sheetData>
@@ -2970,7 +2684,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3019,7 +2733,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D2" t="s">
         <v>9</v>
@@ -3034,7 +2748,7 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>3300</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3045,7 +2759,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -3071,7 +2785,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -3086,7 +2800,7 @@
         <v>56</v>
       </c>
       <c r="K4">
-        <v>1980</v>
+        <v>2028</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3097,7 +2811,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -3112,7 +2826,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>2028</v>
+        <v>2060</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3123,7 +2837,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -3138,7 +2852,7 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>2500</v>
+        <v>2548</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3149,7 +2863,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -3175,7 +2889,7 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -3190,7 +2904,7 @@
         <v>56</v>
       </c>
       <c r="K8">
-        <v>1500</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3201,7 +2915,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -3216,7 +2930,7 @@
         <v>56</v>
       </c>
       <c r="K9">
-        <v>1548</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3227,7 +2941,7 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3242,7 +2956,7 @@
         <v>56</v>
       </c>
       <c r="K10">
-        <v>2600</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -3253,7 +2967,7 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -3269,58 +2983,6 @@
       </c>
       <c r="K11">
         <v>2680</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13">
-        <v>1608</v>
       </c>
     </row>
   </sheetData>
@@ -3330,7 +2992,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3379,7 +3041,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
         <v>10</v>
@@ -3394,7 +3056,7 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>3400</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3405,7 +3067,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>10</v>
@@ -3431,7 +3093,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>10</v>
@@ -3446,7 +3108,7 @@
         <v>56</v>
       </c>
       <c r="K4">
-        <v>2040</v>
+        <v>2088</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3457,7 +3119,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -3472,7 +3134,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>2088</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3483,7 +3145,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D6" t="s">
         <v>10</v>
@@ -3498,7 +3160,7 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>4100</v>
+        <v>4148</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3509,7 +3171,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -3535,7 +3197,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D8" t="s">
         <v>10</v>
@@ -3550,7 +3212,7 @@
         <v>56</v>
       </c>
       <c r="K8">
-        <v>2460</v>
+        <v>2508</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3561,7 +3223,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D9" t="s">
         <v>10</v>
@@ -3576,7 +3238,7 @@
         <v>56</v>
       </c>
       <c r="K9">
-        <v>2508</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -3587,7 +3249,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -3602,7 +3264,7 @@
         <v>56</v>
       </c>
       <c r="K10">
-        <v>4200</v>
+        <v>4248</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -3613,7 +3275,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -3629,58 +3291,6 @@
       </c>
       <c r="K11">
         <v>4280</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12">
-        <v>2520</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>79</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13">
-        <v>2568</v>
       </c>
     </row>
   </sheetData>
@@ -3690,7 +3300,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3739,7 +3349,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
@@ -3754,7 +3364,7 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>3500</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -3765,7 +3375,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
@@ -3788,25 +3398,25 @@
         <v>54</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J4" t="s">
         <v>56</v>
       </c>
       <c r="K4">
-        <v>2100</v>
+        <v>2748</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -3814,25 +3424,25 @@
         <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J5" t="s">
         <v>56</v>
       </c>
       <c r="K5">
-        <v>2148</v>
+        <v>2780</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -3843,7 +3453,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -3852,13 +3462,13 @@
         <v>26</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
         <v>56</v>
       </c>
       <c r="K6">
-        <v>2700</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -3869,7 +3479,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -3878,13 +3488,13 @@
         <v>26</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
         <v>56</v>
       </c>
       <c r="K7">
-        <v>2780</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -3895,22 +3505,22 @@
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J8" t="s">
         <v>56</v>
       </c>
       <c r="K8">
-        <v>1620</v>
+        <v>2848</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -3921,126 +3531,22 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J9" t="s">
         <v>56</v>
       </c>
       <c r="K9">
-        <v>1668</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>54</v>
-      </c>
-      <c r="B10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10">
-        <v>2800</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
-        <v>89</v>
-      </c>
-      <c r="D11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E11" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="J11" t="s">
-        <v>56</v>
-      </c>
-      <c r="K11">
         <v>2880</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13">
-        <v>1728</v>
       </c>
     </row>
   </sheetData>
@@ -4050,7 +3556,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4099,7 +3605,7 @@
         <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -4114,7 +3620,7 @@
         <v>56</v>
       </c>
       <c r="K2">
-        <v>3600</v>
+        <v>3648</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -4125,7 +3631,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -4151,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
@@ -4166,7 +3672,7 @@
         <v>56</v>
       </c>
       <c r="K4">
-        <v>2160</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -4177,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
@@ -4192,7 +3698,7 @@
         <v>56</v>
       </c>
       <c r="K5">
-        <v>2208</v>
+        <v>2240</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -4203,7 +3709,7 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
@@ -4218,7 +3724,7 @@
         <v>56</v>
       </c>
       <c r="K6">
-        <v>4300</v>
+        <v>4348</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -4229,7 +3735,7 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
@@ -4255,7 +3761,7 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
@@ -4270,7 +3776,7 @@
         <v>56</v>
       </c>
       <c r="K8">
-        <v>2580</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -4281,7 +3787,7 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
@@ -4296,7 +3802,7 @@
         <v>56</v>
       </c>
       <c r="K9">
-        <v>2628</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -4307,7 +3813,7 @@
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D10" t="s">
         <v>15</v>
@@ -4322,7 +3828,7 @@
         <v>56</v>
       </c>
       <c r="K10">
-        <v>4400</v>
+        <v>4448</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -4333,7 +3839,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="D11" t="s">
         <v>15</v>
@@ -4349,58 +3855,6 @@
       </c>
       <c r="K11">
         <v>4480</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="J12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12">
-        <v>2640</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" t="s">
-        <v>91</v>
-      </c>
-      <c r="D13" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13">
-        <v>2688</v>
       </c>
     </row>
   </sheetData>

--- a/python/FareFiling/gg_fare_filing.xlsx
+++ b/python/FareFiling/gg_fare_filing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ping\git\pingsays\python\FareFiling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A38C4C-6F14-4ED0-8E96-344F676E6788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20D5B0D-F17A-4262-AB64-94653F59CEB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="62130" yWindow="8355" windowWidth="17310" windowHeight="13395" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="7455" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="H1" sheetId="8" r:id="rId8"/>
     <sheet name="H2" sheetId="9" r:id="rId9"/>
     <sheet name="P" sheetId="10" r:id="rId10"/>
+    <sheet name="O" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1259" uniqueCount="87">
   <si>
     <t>sort</t>
   </si>
@@ -66,93 +67,100 @@
     <t>Y</t>
   </si>
   <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Remarks:
+'O' for One Season</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>SGN</t>
+  </si>
+  <si>
+    <t>BKK</t>
+  </si>
+  <si>
+    <t>cabin</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Premium Economy</t>
+  </si>
+  <si>
+    <t>Economy</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>season_code</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>K1</t>
   </si>
   <si>
-    <t>Q</t>
-  </si>
-  <si>
-    <t>U</t>
+    <t>K2</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>N</t>
+    <t>H2</t>
   </si>
   <si>
     <t>P</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
-    <t>SGN</t>
-  </si>
-  <si>
-    <t>K2</t>
-  </si>
-  <si>
-    <t>H2</t>
-  </si>
-  <si>
-    <t>BKK</t>
-  </si>
-  <si>
-    <t>cabin</t>
-  </si>
-  <si>
-    <t>W</t>
-  </si>
-  <si>
-    <t>Premium Economy</t>
-  </si>
-  <si>
-    <t>Economy</t>
-  </si>
-  <si>
-    <t>K</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>T</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>Business</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>season_code</t>
-  </si>
-  <si>
     <t>weekend</t>
   </si>
   <si>
@@ -172,9 +180,6 @@
   </si>
   <si>
     <t>RT</t>
-  </si>
-  <si>
-    <t>O</t>
   </si>
   <si>
     <t>OO</t>
@@ -304,7 +309,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,6 +329,13 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -334,7 +346,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -357,11 +369,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -375,11 +471,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="23">
     <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
@@ -461,14 +573,6 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
@@ -488,12 +592,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F24" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:F24" xr:uid="{00000000-0009-0000-0100-000001000000}">
-    <filterColumn colId="3">
-      <colorFilter dxfId="21"/>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table3" displayName="Table3" ref="A1:F24" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:F24" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="sort" dataDxfId="20">
       <calculatedColumnFormula>IF(ROW()=2, ROW($A$1),$A1+1)</calculatedColumnFormula>
@@ -520,8 +620,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B9" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="A1:B9" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table4" displayName="Table4" ref="A1:B10" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A1:B10" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="season" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="season_code" dataDxfId="7"/>
@@ -841,10 +941,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -854,11 +954,13 @@
     <col min="3" max="3" width="11.26953125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7265625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.36328125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="8.7265625" style="3" customWidth="1"/>
-    <col min="12" max="16384" width="8.7265625" style="3"/>
+    <col min="6" max="7" width="8.7265625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.6328125" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="16" width="8.7265625" style="3" customWidth="1"/>
+    <col min="17" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -878,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <f t="shared" ref="A2:A24" si="0">IF(ROW()=2, ROW($A$1),$A1+1)</f>
         <v>1</v>
@@ -895,8 +997,14 @@
       <c r="E2" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -905,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>8</v>
@@ -913,8 +1021,12 @@
       <c r="E3" s="3">
         <v>2400</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -923,16 +1035,20 @@
         <v>6</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E4" s="3">
         <v>2500</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H4" s="9"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -944,13 +1060,17 @@
         <v>12</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E5" s="3">
         <v>2600</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H5" s="9"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -962,13 +1082,17 @@
         <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3">
         <v>2700</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="14"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -977,16 +1101,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E7" s="3">
         <v>2800</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -995,16 +1119,16 @@
         <v>6</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E8" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1013,16 +1137,16 @@
         <v>6</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E9" s="3">
         <v>3000</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1031,7 +1155,7 @@
         <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>8</v>
@@ -1040,13 +1164,13 @@
         <v>3100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>7</v>
@@ -1058,91 +1182,91 @@
         <v>3200</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E12" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3">
         <v>3400</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E14" s="3">
         <v>3500</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E15" s="3">
         <v>3600</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E16" s="3">
         <v>3700</v>
@@ -1154,13 +1278,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E17" s="3">
         <v>3800</v>
@@ -1172,7 +1296,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>7</v>
@@ -1190,10 +1314,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>8</v>
@@ -1208,13 +1332,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>4100</v>
@@ -1226,13 +1350,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="E21" s="3">
         <v>4200</v>
@@ -1244,13 +1368,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>4300</v>
@@ -1262,13 +1386,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="E23" s="3">
         <v>4400</v>
@@ -1280,20 +1404,24 @@
         <v>23</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="E24" s="3">
         <v>4500</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:K6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -1310,86 +1438,86 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>3748</v>
+        <v>3700</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>3780</v>
@@ -1397,51 +1525,51 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>2948</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>2980</v>
@@ -1449,51 +1577,51 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>3848</v>
+        <v>3800</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>3880</v>
@@ -1501,51 +1629,51 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>4548</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
         <v>4580</v>
@@ -1553,51 +1681,51 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>3048</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>3080</v>
@@ -1605,54 +1733,2026 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
         <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>1848</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13">
+        <v>1840</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+  <dimension ref="A1:K75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J2" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" t="s">
+        <v>57</v>
+      </c>
+      <c r="K4">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" t="s">
+        <v>57</v>
+      </c>
+      <c r="K7">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9">
+        <v>1960</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>57</v>
+      </c>
+      <c r="K10">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" t="s">
+        <v>57</v>
+      </c>
+      <c r="K11">
+        <v>3980</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13">
+        <v>2380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>57</v>
+      </c>
+      <c r="K14">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>57</v>
+      </c>
+      <c r="K15">
+        <v>2480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>57</v>
+      </c>
+      <c r="K16">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K17">
+        <v>1480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K18">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" t="s">
+        <v>45</v>
+      </c>
+      <c r="J19" t="s">
+        <v>57</v>
+      </c>
+      <c r="K19">
+        <v>3380</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>46</v>
+      </c>
+      <c r="J20" t="s">
+        <v>57</v>
+      </c>
+      <c r="K20">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>57</v>
+      </c>
+      <c r="K21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" t="s">
+        <v>45</v>
+      </c>
+      <c r="J22" t="s">
+        <v>57</v>
+      </c>
+      <c r="K22">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" t="s">
+        <v>57</v>
+      </c>
+      <c r="K23">
+        <v>4080</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>57</v>
+      </c>
+      <c r="K24">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K25">
+        <v>2440</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" t="s">
+        <v>45</v>
+      </c>
+      <c r="J26" t="s">
+        <v>57</v>
+      </c>
+      <c r="K26">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="J27" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>57</v>
+      </c>
+      <c r="K28">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" t="s">
+        <v>6</v>
+      </c>
+      <c r="C29" t="s">
+        <v>72</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="J29" t="s">
+        <v>57</v>
+      </c>
+      <c r="K29">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" t="s">
+        <v>45</v>
+      </c>
+      <c r="J30" t="s">
+        <v>57</v>
+      </c>
+      <c r="K30">
+        <v>3400</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" t="s">
+        <v>45</v>
+      </c>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+      <c r="K31">
+        <v>3480</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F32" t="s">
+        <v>46</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>46</v>
+      </c>
+      <c r="J33" t="s">
+        <v>57</v>
+      </c>
+      <c r="K33">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>23</v>
+      </c>
+      <c r="F34" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+      <c r="K34">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="J35" t="s">
+        <v>57</v>
+      </c>
+      <c r="K35">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" t="s">
+        <v>71</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" t="s">
+        <v>46</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+      <c r="K36">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+      <c r="F37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J37" t="s">
+        <v>57</v>
+      </c>
+      <c r="K37">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" t="s">
+        <v>6</v>
+      </c>
+      <c r="C38" t="s">
+        <v>73</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" t="s">
+        <v>45</v>
+      </c>
+      <c r="J38" t="s">
+        <v>57</v>
+      </c>
+      <c r="K38">
+        <v>2600</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>6</v>
+      </c>
+      <c r="C39" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="J39" t="s">
+        <v>57</v>
+      </c>
+      <c r="K39">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40" t="s">
+        <v>12</v>
+      </c>
+      <c r="E40" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" t="s">
+        <v>45</v>
+      </c>
+      <c r="J40" t="s">
+        <v>57</v>
+      </c>
+      <c r="K40">
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" t="s">
+        <v>74</v>
+      </c>
+      <c r="D41" t="s">
+        <v>12</v>
+      </c>
+      <c r="E41" t="s">
+        <v>23</v>
+      </c>
+      <c r="F41" t="s">
+        <v>45</v>
+      </c>
+      <c r="J41" t="s">
+        <v>57</v>
+      </c>
+      <c r="K41">
+        <v>3580</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>73</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" t="s">
+        <v>45</v>
+      </c>
+      <c r="J42" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" t="s">
+        <v>74</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" t="s">
+        <v>45</v>
+      </c>
+      <c r="J43" t="s">
+        <v>57</v>
+      </c>
+      <c r="K43">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" t="s">
+        <v>75</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
+        <v>22</v>
+      </c>
+      <c r="F44" t="s">
+        <v>45</v>
+      </c>
+      <c r="J44" t="s">
+        <v>57</v>
+      </c>
+      <c r="K44">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" t="s">
+        <v>76</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
+        <v>22</v>
+      </c>
+      <c r="F45" t="s">
+        <v>45</v>
+      </c>
+      <c r="J45" t="s">
+        <v>57</v>
+      </c>
+      <c r="K45">
+        <v>2780</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" t="s">
+        <v>22</v>
+      </c>
+      <c r="F46" t="s">
+        <v>46</v>
+      </c>
+      <c r="J46" t="s">
+        <v>57</v>
+      </c>
+      <c r="K46">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>22</v>
+      </c>
+      <c r="F47" t="s">
+        <v>46</v>
+      </c>
+      <c r="J47" t="s">
+        <v>57</v>
+      </c>
+      <c r="K47">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" t="s">
+        <v>45</v>
+      </c>
+      <c r="J48" t="s">
+        <v>57</v>
+      </c>
+      <c r="K48">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>76</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F49" t="s">
+        <v>45</v>
+      </c>
+      <c r="J49" t="s">
+        <v>57</v>
+      </c>
+      <c r="K49">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>55</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>22</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="J50" t="s">
+        <v>57</v>
+      </c>
+      <c r="K50">
+        <v>2160</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" t="s">
+        <v>22</v>
+      </c>
+      <c r="F51" t="s">
+        <v>46</v>
+      </c>
+      <c r="J51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K51">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" t="s">
+        <v>75</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" t="s">
+        <v>45</v>
+      </c>
+      <c r="J52" t="s">
+        <v>57</v>
+      </c>
+      <c r="K52">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" t="s">
+        <v>76</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" t="s">
+        <v>45</v>
+      </c>
+      <c r="J53" t="s">
+        <v>57</v>
+      </c>
+      <c r="K53">
+        <v>4380</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" t="s">
+        <v>46</v>
+      </c>
+      <c r="J54" t="s">
+        <v>57</v>
+      </c>
+      <c r="K54">
+        <v>2580</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>46</v>
+      </c>
+      <c r="J55" t="s">
+        <v>57</v>
+      </c>
+      <c r="K55">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>6</v>
+      </c>
+      <c r="C56" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+      <c r="E56" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" t="s">
+        <v>45</v>
+      </c>
+      <c r="J56" t="s">
+        <v>57</v>
+      </c>
+      <c r="K56">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+      <c r="C57" t="s">
+        <v>80</v>
+      </c>
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+      <c r="E57" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" t="s">
+        <v>45</v>
+      </c>
+      <c r="J57" t="s">
+        <v>57</v>
+      </c>
+      <c r="K57">
+        <v>2880</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>55</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" t="s">
+        <v>45</v>
+      </c>
+      <c r="J58" t="s">
+        <v>57</v>
+      </c>
+      <c r="K58">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>55</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>80</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" t="s">
+        <v>45</v>
+      </c>
+      <c r="J59" t="s">
+        <v>57</v>
+      </c>
+      <c r="K59">
+        <v>3780</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>55</v>
+      </c>
+      <c r="B60" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" t="s">
+        <v>23</v>
+      </c>
+      <c r="F60" t="s">
+        <v>45</v>
+      </c>
+      <c r="J60" t="s">
+        <v>57</v>
+      </c>
+      <c r="K60">
+        <v>4400</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" t="s">
+        <v>80</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" t="s">
+        <v>23</v>
+      </c>
+      <c r="F61" t="s">
+        <v>45</v>
+      </c>
+      <c r="J61" t="s">
+        <v>57</v>
+      </c>
+      <c r="K61">
+        <v>4480</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>55</v>
+      </c>
+      <c r="B62" t="s">
+        <v>6</v>
+      </c>
+      <c r="C62" t="s">
+        <v>81</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+      <c r="E62" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" t="s">
+        <v>45</v>
+      </c>
+      <c r="J62" t="s">
+        <v>57</v>
+      </c>
+      <c r="K62">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" t="s">
+        <v>6</v>
+      </c>
+      <c r="C63" t="s">
+        <v>82</v>
+      </c>
+      <c r="D63" t="s">
+        <v>15</v>
+      </c>
+      <c r="E63" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" t="s">
+        <v>45</v>
+      </c>
+      <c r="J63" t="s">
+        <v>57</v>
+      </c>
+      <c r="K63">
+        <v>2980</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>55</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
+      </c>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+      <c r="E64" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" t="s">
+        <v>45</v>
+      </c>
+      <c r="J64" t="s">
+        <v>57</v>
+      </c>
+      <c r="K64">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>55</v>
+      </c>
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
+      </c>
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" t="s">
+        <v>45</v>
+      </c>
+      <c r="J65" t="s">
+        <v>57</v>
+      </c>
+      <c r="K65">
+        <v>3880</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>55</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>81</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+      <c r="E66" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" t="s">
+        <v>45</v>
+      </c>
+      <c r="J66" t="s">
+        <v>57</v>
+      </c>
+      <c r="K66">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67" t="s">
+        <v>82</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+      <c r="E67" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" t="s">
+        <v>45</v>
+      </c>
+      <c r="J67" t="s">
+        <v>57</v>
+      </c>
+      <c r="K67">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>55</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68" t="s">
+        <v>83</v>
+      </c>
+      <c r="D68" t="s">
+        <v>16</v>
+      </c>
+      <c r="E68" t="s">
+        <v>22</v>
+      </c>
+      <c r="F68" t="s">
+        <v>45</v>
+      </c>
+      <c r="J68" t="s">
+        <v>57</v>
+      </c>
+      <c r="K68">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>55</v>
+      </c>
+      <c r="B69" t="s">
+        <v>6</v>
+      </c>
+      <c r="C69" t="s">
+        <v>84</v>
+      </c>
+      <c r="D69" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" t="s">
+        <v>22</v>
+      </c>
+      <c r="F69" t="s">
+        <v>45</v>
+      </c>
+      <c r="J69" t="s">
+        <v>57</v>
+      </c>
+      <c r="K69">
+        <v>3080</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>55</v>
+      </c>
+      <c r="B70" t="s">
+        <v>6</v>
+      </c>
+      <c r="C70" t="s">
         <v>85</v>
       </c>
-      <c r="D13" t="s">
-        <v>18</v>
-      </c>
-      <c r="E13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="J13" t="s">
-        <v>56</v>
-      </c>
-      <c r="K13">
-        <v>1880</v>
+      <c r="D70" t="s">
+        <v>16</v>
+      </c>
+      <c r="E70" t="s">
+        <v>22</v>
+      </c>
+      <c r="F70" t="s">
+        <v>46</v>
+      </c>
+      <c r="J70" t="s">
+        <v>57</v>
+      </c>
+      <c r="K70">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>55</v>
+      </c>
+      <c r="B71" t="s">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>86</v>
+      </c>
+      <c r="D71" t="s">
+        <v>16</v>
+      </c>
+      <c r="E71" t="s">
+        <v>22</v>
+      </c>
+      <c r="F71" t="s">
+        <v>46</v>
+      </c>
+      <c r="J71" t="s">
+        <v>57</v>
+      </c>
+      <c r="K71">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>55</v>
+      </c>
+      <c r="B72" t="s">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>65</v>
+      </c>
+      <c r="D72" t="s">
+        <v>17</v>
+      </c>
+      <c r="E72" t="s">
+        <v>22</v>
+      </c>
+      <c r="F72" t="s">
+        <v>45</v>
+      </c>
+      <c r="J72" t="s">
+        <v>57</v>
+      </c>
+      <c r="K72">
+        <v>3100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>55</v>
+      </c>
+      <c r="B73" t="s">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" t="s">
+        <v>45</v>
+      </c>
+      <c r="J73" t="s">
+        <v>57</v>
+      </c>
+      <c r="K73">
+        <v>3180</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>55</v>
+      </c>
+      <c r="B74" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>67</v>
+      </c>
+      <c r="D74" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" t="s">
+        <v>22</v>
+      </c>
+      <c r="F74" t="s">
+        <v>46</v>
+      </c>
+      <c r="J74" t="s">
+        <v>57</v>
+      </c>
+      <c r="K74">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>55</v>
+      </c>
+      <c r="B75" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" t="s">
+        <v>22</v>
+      </c>
+      <c r="F75" t="s">
+        <v>46</v>
+      </c>
+      <c r="J75" t="s">
+        <v>57</v>
+      </c>
+      <c r="K75">
+        <v>1900</v>
       </c>
     </row>
   </sheetData>
@@ -1679,15 +3779,15 @@
         <v>2</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -1695,23 +3795,23 @@
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -1719,55 +3819,55 @@
         <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -1775,47 +3875,47 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1828,10 +3928,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1845,56 +3945,78 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3"/>
+        <v>33</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="3"/>
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="3"/>
+        <v>38</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1908,7 +4030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
@@ -1919,30 +4041,30 @@
     <col min="3" max="3" width="12.08984375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.81640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="13" width="8.7265625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="3"/>
+    <col min="6" max="18" width="8.7265625" style="3" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3">
         <v>0</v>
@@ -1951,12 +4073,12 @@
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3">
         <v>80</v>
@@ -1965,41 +4087,41 @@
         <v>1</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D4" s="2">
         <v>0.6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3">
         <v>40</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D5" s="2">
         <v>0.6</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2020,86 +4142,86 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>2348</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>2380</v>
@@ -2107,103 +4229,103 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>1428</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>1460</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6" t="s">
         <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>3248</v>
+        <v>3200</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>3280</v>
@@ -2211,103 +4333,103 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>1968</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>2000</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>3948</v>
+        <v>3900</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>3980</v>
@@ -2315,103 +4437,103 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D12" t="s">
         <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K12">
-        <v>2388</v>
+        <v>2340</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D13" t="s">
         <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K13">
-        <v>2420</v>
+        <v>2380</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J14" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>2448</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>6</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K15">
         <v>2480</v>
@@ -2419,103 +4541,103 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>1488</v>
+        <v>1440</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
       <c r="C17" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J17" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K17">
-        <v>1520</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F18" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J18" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K18">
-        <v>4048</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J19" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K19">
         <v>4080</v>
@@ -2523,103 +4645,103 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J20" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K20">
-        <v>2448</v>
+        <v>2400</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K21">
-        <v>2480</v>
+        <v>2440</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B22" t="s">
         <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E22" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J22" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>3148</v>
+        <v>3100</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B23" t="s">
         <v>6</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D23" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K23">
         <v>3180</v>
@@ -2627,54 +4749,54 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B24" t="s">
         <v>6</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D24" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K24">
-        <v>1908</v>
+        <v>1860</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E25" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>1940</v>
+        <v>1900</v>
       </c>
     </row>
   </sheetData>
@@ -2692,86 +4814,86 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>3348</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>3380</v>
@@ -2779,103 +4901,103 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>2028</v>
+        <v>1980</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>2060</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>2548</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>2580</v>
@@ -2883,103 +5005,103 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>1548</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>1580</v>
+        <v>1540</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>2648</v>
+        <v>2600</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>2680</v>
@@ -3000,86 +5122,86 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>3448</v>
+        <v>3400</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>3480</v>
@@ -3087,103 +5209,103 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>2088</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>2120</v>
+        <v>2080</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>4148</v>
+        <v>4100</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>4180</v>
@@ -3191,103 +5313,103 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>2508</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>2540</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>4248</v>
+        <v>4200</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>4280</v>
@@ -3308,86 +5430,86 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" t="s">
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>3548</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>3580</v>
@@ -3395,51 +5517,51 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>2748</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
         <v>2780</v>
@@ -3447,103 +5569,103 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>1668</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
-        <v>1700</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F8" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>2848</v>
+        <v>2800</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
         <v>2880</v>
@@ -3564,86 +5686,86 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K2">
-        <v>3648</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K3">
         <v>3680</v>
@@ -3651,103 +5773,103 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K4">
-        <v>2208</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D5" t="s">
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J5" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>2240</v>
+        <v>2200</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D6" t="s">
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J6" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K6">
-        <v>4348</v>
+        <v>4300</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D7" t="s">
         <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K7">
         <v>4380</v>
@@ -3755,103 +5877,103 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
         <v>13</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J8" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K8">
-        <v>2628</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K9">
-        <v>2660</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10">
-        <v>4448</v>
+        <v>4400</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="J11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K11">
         <v>4480</v>
